--- a/2024/nuno-dataset/test-oxigen/content/results/metrics_3_5.xlsx
+++ b/2024/nuno-dataset/test-oxigen/content/results/metrics_3_5.xlsx
@@ -478,776 +478,776 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_3_5_1</t>
+          <t>model_3_5_20</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8021113675337731</v>
+        <v>0.4367514834460438</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6735655016544567</v>
+        <v>0.2952304384545075</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.2806041947067963</v>
+        <v>0.4522679027324807</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5554727264315407</v>
+        <v>0.3847582114666007</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2190044224262238</v>
+        <v>0.6233501434326172</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4195771515369415</v>
+        <v>0.7578065395355225</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2843081057071686</v>
+        <v>0.8220329284667969</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3559211194515228</v>
+        <v>0.7880306839942932</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_3_5_0</t>
+          <t>model_3_5_24</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8025844681938415</v>
+        <v>0.4370858593187242</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6863454137225934</v>
+        <v>0.2937061881377719</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.2409788897290139</v>
+        <v>0.4544790886311105</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5715046162707194</v>
+        <v>0.3853007057528003</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2184808254241943</v>
+        <v>0.6229801177978516</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4031506776809692</v>
+        <v>0.7594454884529114</v>
       </c>
       <c r="H3" t="n">
-        <v>0.275510847568512</v>
+        <v>0.8187143802642822</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3430848121643066</v>
+        <v>0.7873358130455017</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_3_5_8</t>
+          <t>model_3_5_23</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8041348807063166</v>
+        <v>0.4373199646620953</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6575740492356987</v>
+        <v>0.2931565804556433</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.3827409831122286</v>
+        <v>0.4562952523952334</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5285547258560881</v>
+        <v>0.3860578209621109</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2167649567127228</v>
+        <v>0.6227210164070129</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4401315152645111</v>
+        <v>0.7600364089012146</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3069835603237152</v>
+        <v>0.8159886598587036</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3774736523628235</v>
+        <v>0.7863660454750061</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_3_5_20</t>
+          <t>model_3_5_22</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8043190092008095</v>
+        <v>0.4374164490946596</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6585078049286239</v>
+        <v>0.2939635143771404</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.4762899733723907</v>
+        <v>0.4562502608915323</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5171409448560678</v>
+        <v>0.3863902349954188</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2165612131357193</v>
+        <v>0.6226142644882202</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4389313161373138</v>
+        <v>0.759168803691864</v>
       </c>
       <c r="H5" t="n">
-        <v>0.3277524709701538</v>
+        <v>0.8160561919212341</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3866123557090759</v>
+        <v>0.7859402894973755</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_3_5_2</t>
+          <t>model_3_5_21</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8043688817104425</v>
+        <v>0.4374256110570883</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6745291130465925</v>
+        <v>0.2945403851669307</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.2711105351689327</v>
+        <v>0.4560084516119806</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5575304564704685</v>
+        <v>0.3865139670987241</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2165060043334961</v>
+        <v>0.6226040720939636</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4183385968208313</v>
+        <v>0.7585484981536865</v>
       </c>
       <c r="H6" t="n">
-        <v>0.282200425863266</v>
+        <v>0.8164191246032715</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3542735576629639</v>
+        <v>0.7857817411422729</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_3_5_3</t>
+          <t>model_3_5_17</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8045090219311999</v>
+        <v>0.4382116227194593</v>
       </c>
       <c r="C7" t="n">
-        <v>0.674041304353461</v>
+        <v>0.2983485763218057</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.2852777425778568</v>
+        <v>0.458718350299772</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5552672754046973</v>
+        <v>0.3897008364085585</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2163508981466293</v>
+        <v>0.6217342019081116</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4189655780792236</v>
+        <v>0.7544537782669067</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2853456735610962</v>
+        <v>0.8123520612716675</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3560856282711029</v>
+        <v>0.7816998958587646</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_3_5_24</t>
+          <t>model_3_5_18</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.8046554887010585</v>
+        <v>0.4382753309025219</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6563900577646348</v>
+        <v>0.2980978498547525</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.4695251047865212</v>
+        <v>0.4591029433436402</v>
       </c>
       <c r="E8" t="n">
-        <v>0.516224472693078</v>
+        <v>0.3898012238899734</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2161888033151627</v>
+        <v>0.6216636896133423</v>
       </c>
       <c r="G8" t="n">
-        <v>0.4416533410549164</v>
+        <v>0.7547233104705811</v>
       </c>
       <c r="H8" t="n">
-        <v>0.3262506127357483</v>
+        <v>0.8117748498916626</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3873461484909058</v>
+        <v>0.7815713286399841</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_3_5_21</t>
+          <t>model_3_5_19</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.8046854126984948</v>
+        <v>0.4383506705722905</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6639047061554791</v>
+        <v>0.2967174704321972</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.5035740308267205</v>
+        <v>0.4601408908350862</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5181681007078049</v>
+        <v>0.3897601083036498</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2161556929349899</v>
+        <v>0.6215803027153015</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4319944977760315</v>
+        <v>0.7562076449394226</v>
       </c>
       <c r="H9" t="n">
-        <v>0.3338098227977753</v>
+        <v>0.8102171421051025</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3857899308204651</v>
+        <v>0.7816239595413208</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_3_5_23</t>
+          <t>model_3_5_15</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.8046953592168208</v>
+        <v>0.4396217544343949</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6572771840496421</v>
+        <v>0.298174623089792</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.4695969790667645</v>
+        <v>0.4666886704678475</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5169687639321642</v>
+        <v>0.3940182056207997</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2161446958780289</v>
+        <v>0.6201735734939575</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4405130445957184</v>
+        <v>0.7546408176422119</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3262665867805481</v>
+        <v>0.8003903031349182</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3867502212524414</v>
+        <v>0.7761700749397278</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_3_5_22</t>
+          <t>model_3_5_16</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.8047039745748075</v>
+        <v>0.4403149357244391</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6613394274229969</v>
+        <v>0.2973344490877726</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.48699516664924</v>
+        <v>0.4704061084316988</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5181515707399855</v>
+        <v>0.3956946236713801</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2161351442337036</v>
+        <v>0.6194064021110535</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4352917671203613</v>
+        <v>0.7555441856384277</v>
       </c>
       <c r="H11" t="n">
-        <v>0.3301291763782501</v>
+        <v>0.7948111891746521</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3858031630516052</v>
+        <v>0.7740227580070496</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_3_5_19</t>
+          <t>model_3_5_14</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.8047218370971239</v>
+        <v>0.440722030933982</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6563041144360167</v>
+        <v>0.2953203791718995</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.4442412629794359</v>
+        <v>0.4756056848553092</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5194502833355736</v>
+        <v>0.397666569250931</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2161153852939606</v>
+        <v>0.6189559102058411</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4417637884616852</v>
+        <v>0.757709801197052</v>
       </c>
       <c r="H12" t="n">
-        <v>0.3206373155117035</v>
+        <v>0.7870076894760132</v>
       </c>
       <c r="I12" t="n">
-        <v>0.3847633302211761</v>
+        <v>0.7714970111846924</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_3_5_9</t>
+          <t>model_3_5_13</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.8047787275765362</v>
+        <v>0.4419984626351456</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6578309306701653</v>
+        <v>0.2970098590517163</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.376866498226065</v>
+        <v>0.4821837401722917</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5295395741504942</v>
+        <v>0.4020445007804886</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2160524278879166</v>
+        <v>0.6175432801246643</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4398013353347778</v>
+        <v>0.7558932304382324</v>
       </c>
       <c r="H13" t="n">
-        <v>0.3056794106960297</v>
+        <v>0.7771353721618652</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3766851127147675</v>
+        <v>0.765889585018158</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_3_5_5</t>
+          <t>model_3_5_11</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.8048186774915743</v>
+        <v>0.4435004721709457</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6614324266793632</v>
+        <v>0.2974970902196133</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.2861626144893794</v>
+        <v>0.491585452446322</v>
       </c>
       <c r="E14" t="n">
-        <v>0.544435322207812</v>
+        <v>0.4074452620957844</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2160082161426544</v>
+        <v>0.6158810257911682</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4351722002029419</v>
+        <v>0.7553693056106567</v>
       </c>
       <c r="H14" t="n">
-        <v>0.2855421304702759</v>
+        <v>0.7630254030227661</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3647584915161133</v>
+        <v>0.7589719891548157</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_3_5_4</t>
+          <t>model_3_5_12</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.8049349574650232</v>
+        <v>0.4439535414429654</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6743449636535573</v>
+        <v>0.2975622333105741</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.2724817978691272</v>
+        <v>0.4935529839927255</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5571943385750873</v>
+        <v>0.4085590049878508</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2158795297145844</v>
+        <v>0.6153796315193176</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4185752868652344</v>
+        <v>0.7552992105484009</v>
       </c>
       <c r="H15" t="n">
-        <v>0.2825048565864563</v>
+        <v>0.7600725293159485</v>
       </c>
       <c r="I15" t="n">
-        <v>0.3545427024364471</v>
+        <v>0.7575454711914062</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_3_5_7</t>
+          <t>model_3_5_1</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.805060914125649</v>
+        <v>0.4463599943165895</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6595260575340893</v>
+        <v>0.3095808913288109</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.3318081040848964</v>
+        <v>0.591176650730421</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5368596527691625</v>
+        <v>0.4677298307450463</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2157401293516159</v>
+        <v>0.6127163767814636</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4376224875450134</v>
+        <v>0.7423761487007141</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2956759631633759</v>
+        <v>0.6135594844818115</v>
       </c>
       <c r="I16" t="n">
-        <v>0.3708241283893585</v>
+        <v>0.6817566156387329</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_3_5_6</t>
+          <t>model_3_5_10</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.805571005777537</v>
+        <v>0.4477237636180231</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6588105552875246</v>
+        <v>0.3005763718055854</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.30318637650173</v>
+        <v>0.5134206932999195</v>
       </c>
       <c r="E17" t="n">
-        <v>0.5399860487475852</v>
+        <v>0.4208536188409819</v>
       </c>
       <c r="F17" t="n">
-        <v>0.215175598859787</v>
+        <v>0.6112070083618164</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4385421872138977</v>
+        <v>0.7520582675933838</v>
       </c>
       <c r="H17" t="n">
-        <v>0.2893215715885162</v>
+        <v>0.7302551865577698</v>
       </c>
       <c r="I17" t="n">
-        <v>0.3683209121227264</v>
+        <v>0.741797924041748</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_3_5_10</t>
+          <t>model_3_5_9</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.8058661612453754</v>
+        <v>0.449023496146748</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6600783958995731</v>
+        <v>0.3009302566003308</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.3678169241691467</v>
+        <v>0.5209163528935264</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5326305241826343</v>
+        <v>0.4251438834101413</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2148489654064178</v>
+        <v>0.6097686886787415</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4369125664234161</v>
+        <v>0.7516777515411377</v>
       </c>
       <c r="H18" t="n">
-        <v>0.3036702871322632</v>
+        <v>0.7190057039260864</v>
       </c>
       <c r="I18" t="n">
-        <v>0.3742102980613708</v>
+        <v>0.7363027930259705</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_3_5_13</t>
+          <t>model_3_5_2</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.8061716536673416</v>
+        <v>0.4498441431535528</v>
       </c>
       <c r="C19" t="n">
-        <v>0.664801725971546</v>
+        <v>0.3111728333808697</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.4093277909812834</v>
+        <v>0.5971446758045701</v>
       </c>
       <c r="E19" t="n">
-        <v>0.5312279076714914</v>
+        <v>0.4717282067918867</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2145108729600906</v>
+        <v>0.6088604331016541</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4308415651321411</v>
+        <v>0.7406643629074097</v>
       </c>
       <c r="H19" t="n">
-        <v>0.3128861784934998</v>
+        <v>0.6046026945114136</v>
       </c>
       <c r="I19" t="n">
-        <v>0.375333309173584</v>
+        <v>0.6766353249549866</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_3_5_15</t>
+          <t>model_3_5_8</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.8061934725756161</v>
+        <v>0.4498644550309888</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6624796856996569</v>
+        <v>0.3049715012274276</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.4040779712589846</v>
+        <v>0.5248161192806875</v>
       </c>
       <c r="E20" t="n">
-        <v>0.5299395153130323</v>
+        <v>0.4290903016276619</v>
       </c>
       <c r="F20" t="n">
-        <v>0.2144867032766342</v>
+        <v>0.608837902545929</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4338261187076569</v>
+        <v>0.7473324537277222</v>
       </c>
       <c r="H20" t="n">
-        <v>0.3117206394672394</v>
+        <v>0.7131530046463013</v>
       </c>
       <c r="I20" t="n">
-        <v>0.3763649165630341</v>
+        <v>0.7312480211257935</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_3_5_11</t>
+          <t>model_3_5_5</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.8062156536225866</v>
+        <v>0.4500445676355206</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6650973751569098</v>
+        <v>0.3113079611938683</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.3998349929670457</v>
+        <v>0.5512475901059746</v>
       </c>
       <c r="E21" t="n">
-        <v>0.5327180885809059</v>
+        <v>0.4464807723038128</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2144621759653091</v>
+        <v>0.6086386442184448</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4304615259170532</v>
+        <v>0.740519106388092</v>
       </c>
       <c r="H21" t="n">
-        <v>0.3107786476612091</v>
+        <v>0.673484742641449</v>
       </c>
       <c r="I21" t="n">
-        <v>0.3741401433944702</v>
+        <v>0.7089734673500061</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_3_5_16</t>
+          <t>model_3_5_4</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.806232379267483</v>
+        <v>0.4510406980852047</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6616954808631088</v>
+        <v>0.3109408997959683</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.401516313866739</v>
+        <v>0.5630057252118896</v>
       </c>
       <c r="E22" t="n">
-        <v>0.5296072672576759</v>
+        <v>0.4528009016469473</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2144436687231064</v>
+        <v>0.6075361967086792</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4348340630531311</v>
+        <v>0.7409137487411499</v>
       </c>
       <c r="H22" t="n">
-        <v>0.3111519515514374</v>
+        <v>0.6558383107185364</v>
       </c>
       <c r="I22" t="n">
-        <v>0.3766309320926666</v>
+        <v>0.700878381729126</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_3_5_14</t>
+          <t>model_3_5_7</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.8062377431594241</v>
+        <v>0.4511701404808983</v>
       </c>
       <c r="C23" t="n">
-        <v>0.6636355780869176</v>
+        <v>0.308875287911469</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.4052687068391152</v>
+        <v>0.5344522999174089</v>
       </c>
       <c r="E23" t="n">
-        <v>0.53076687735979</v>
+        <v>0.4361384485151414</v>
       </c>
       <c r="F23" t="n">
-        <v>0.2144377082586288</v>
+        <v>0.6073929071426392</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4323404133319855</v>
+        <v>0.7431348562240601</v>
       </c>
       <c r="H23" t="n">
-        <v>0.3119849860668182</v>
+        <v>0.6986910700798035</v>
       </c>
       <c r="I23" t="n">
-        <v>0.375702440738678</v>
+        <v>0.7222204208374023</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_3_5_12</t>
+          <t>model_3_5_6</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.8062482633231338</v>
+        <v>0.4528099687495081</v>
       </c>
       <c r="C24" t="n">
-        <v>0.665267213033318</v>
+        <v>0.3094614540586423</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.4016231212645425</v>
+        <v>0.5492429062804431</v>
       </c>
       <c r="E24" t="n">
-        <v>0.5326295620910835</v>
+        <v>0.4445546658385123</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2144260704517365</v>
+        <v>0.6055780649185181</v>
       </c>
       <c r="G24" t="n">
-        <v>0.430243194103241</v>
+        <v>0.7425045967102051</v>
       </c>
       <c r="H24" t="n">
-        <v>0.3111756145954132</v>
+        <v>0.6764934659004211</v>
       </c>
       <c r="I24" t="n">
-        <v>0.3742110729217529</v>
+        <v>0.7114405632019043</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_3_5_17</t>
+          <t>model_3_5_3</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.8062993240103024</v>
+        <v>0.4530954830859569</v>
       </c>
       <c r="C25" t="n">
-        <v>0.6636740399054374</v>
+        <v>0.3130454765828736</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.4197021294360119</v>
+        <v>0.5912187461698611</v>
       </c>
       <c r="E25" t="n">
-        <v>0.5289159681660336</v>
+        <v>0.4692929181181529</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2143695652484894</v>
+        <v>0.6052622199058533</v>
       </c>
       <c r="G25" t="n">
-        <v>0.4322909414768219</v>
+        <v>0.738650918006897</v>
       </c>
       <c r="H25" t="n">
-        <v>0.3151893615722656</v>
+        <v>0.6134963035583496</v>
       </c>
       <c r="I25" t="n">
-        <v>0.3771844208240509</v>
+        <v>0.6797546148300171</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_3_5_18</t>
+          <t>model_3_5_0</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.8066333068711644</v>
+        <v>0.4601610986532527</v>
       </c>
       <c r="C26" t="n">
-        <v>0.665515969225868</v>
+        <v>0.3214512321410198</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.4207623711814641</v>
+        <v>0.7075328688409075</v>
       </c>
       <c r="E26" t="n">
-        <v>0.5303431349584677</v>
+        <v>0.5371640293382054</v>
       </c>
       <c r="F26" t="n">
-        <v>0.2139999568462372</v>
+        <v>0.597442626953125</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4299234747886658</v>
+        <v>0.7296125292778015</v>
       </c>
       <c r="H26" t="n">
-        <v>0.3154247403144836</v>
+        <v>0.4389328360557556</v>
       </c>
       <c r="I26" t="n">
-        <v>0.3760417103767395</v>
+        <v>0.5928220748901367</v>
       </c>
     </row>
   </sheetData>
